--- a/xlsx/总统制_intext.xlsx
+++ b/xlsx/总统制_intext.xlsx
@@ -15,951 +15,942 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t>总统制</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制</t>
+  </si>
+  <si>
+    <t>政策_政策_行政_总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>半总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会制君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>二元制君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主专制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E6%89%A7%E6%94%BF</t>
+  </si>
+  <si>
+    <t>一党执政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>军政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>邦联制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
+  </si>
+  <si>
+    <t>单一制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>直接民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>代议民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>绝对君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>寡头政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>贵族制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF</t>
+  </si>
+  <si>
+    <t>军政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E9%A2%86%E5%AF%BC</t>
+  </si>
+  <si>
+    <t>集体领导</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>金权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>勋阀政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
+  </si>
+  <si>
+    <t>威权政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
+  </si>
+  <si>
+    <t>独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>威权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
+  </si>
+  <si>
+    <t>专制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>专制主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>独裁政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
+  </si>
+  <si>
+    <t>军事独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>极权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>军国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>无政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
+  </si>
+  <si>
+    <t>半民主状态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>判官统治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>神权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>老人政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>绿色政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
+  </si>
+  <si>
+    <t>Template talk-Forms of government</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
+  </si>
+  <si>
+    <t>立法机关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>司法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
+  </si>
+  <si>
+    <t>人民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
+  </si>
+  <si>
+    <t>行政机关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
+  </si>
+  <si>
+    <t>议员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>执政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
+  </si>
+  <si>
+    <t>内阁制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
+  </si>
+  <si>
+    <t>国会议员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
+  </si>
+  <si>
+    <t>违宪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E5%8A%BE</t>
+  </si>
+  <si>
+    <t>弹劾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
+  </si>
+  <si>
+    <t>技术官僚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E8%BC%AA%E6%9B%BF</t>
+  </si>
+  <si>
+    <t>政党轮替</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A</t>
+  </si>
+  <si>
+    <t>官僚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>官僚主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·德拉诺·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%82%89%E8%BE%B9%E8%B0%88%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>炉边谈话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>蒲隆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
+  </si>
+  <si>
+    <t>科摩罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
+  </si>
+  <si>
+    <t>马拉威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔地夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奈及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
+  </si>
+  <si>
+    <t>帛琉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>南苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尚比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
+  </si>
+  <si>
+    <t>辛巴威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
+  </si>
+  <si>
+    <t>加彭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
+  </si>
+  <si>
+    <t>叶门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>伊朗伊斯兰共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
+  </si>
+  <si>
+    <t>政教合一</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%9C%80%E9%AB%98%E9%A2%86%E8%A2%96</t>
+  </si>
+  <si>
+    <t>伊朗最高领袖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>伊朗政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
+  </si>
+  <si>
+    <t>大韩民国国务总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>大韩民国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>秘鲁共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%80%BB%E7%90%86</t>
+  </si>
+  <si>
+    <t>秘鲁总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>秘鲁政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>商务印书馆（香港）有限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%91%98%E5%88%B6</t>
+  </si>
+  <si>
+    <t>委员制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E9%A2%86%E5%AF%BC%E7%9A%84%E5%A4%9A%E5%85%9A%E5%90%88%E4%BD%9C%E5%92%8C%E6%94%BF%E6%B2%BB%E5%8D%8F%E5%95%86%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>中国共产党领导的多党合作和政治协商制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>半总统制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会制君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>二元制君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主专制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E6%89%A7%E6%94%BF</t>
-  </si>
-  <si>
-    <t>一党执政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>军政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
-  </si>
-  <si>
-    <t>政體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>邦联制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
-  </si>
-  <si>
-    <t>单一制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>直接民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>代議民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>绝对君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>寡头政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>贵族制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF</t>
-  </si>
-  <si>
-    <t>军政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E9%A2%86%E5%AF%BC</t>
-  </si>
-  <si>
-    <t>集体领导</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>金權政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>勋阀政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
-  </si>
-  <si>
-    <t>威權政體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
-  </si>
-  <si>
-    <t>独裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>威權主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
-  </si>
-  <si>
-    <t>專制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>專制主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>独裁政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
-  </si>
-  <si>
-    <t>軍事獨裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>极权主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>軍國主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>無政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
-  </si>
-  <si>
-    <t>半民主狀態</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>判官统治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>神權政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>老人政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>綠色政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
-  </si>
-  <si>
-    <t>Template talk-Forms of government</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91</t>
-  </si>
-  <si>
-    <t>政府首脑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
-  </si>
-  <si>
-    <t>立法機關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>司法機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三权分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
-  </si>
-  <si>
-    <t>人民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>命令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
-  </si>
-  <si>
-    <t>行政機關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
-  </si>
-  <si>
-    <t>議會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
-  </si>
-  <si>
-    <t>議員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>執政黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
-  </si>
-  <si>
-    <t>內閣制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
-  </si>
-  <si>
-    <t>国会议员</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
-  </si>
-  <si>
-    <t>違憲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E5%8A%BE</t>
-  </si>
-  <si>
-    <t>弹劾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
-  </si>
-  <si>
-    <t>技術官僚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E8%BC%AA%E6%9B%BF</t>
-  </si>
-  <si>
-    <t>政黨輪替</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A</t>
-  </si>
-  <si>
-    <t>官僚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>官僚主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·德拉诺·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%82%89%E8%BE%B9%E8%B0%88%E8%AF%9D</t>
-  </si>
-  <si>
-    <t>炉边谈话</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>中亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蒲隆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>薩爾瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
-  </si>
-  <si>
-    <t>馬拉威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>馬爾地夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奈及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
-  </si>
-  <si>
-    <t>帛琉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>南蘇丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尚比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
-  </si>
-  <si>
-    <t>辛巴威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
-  </si>
-  <si>
-    <t>加彭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
-  </si>
-  <si>
-    <t>葉門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>伊朗伊斯兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
-  </si>
-  <si>
-    <t>政教合一</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%9C%80%E9%AB%98%E9%A2%86%E8%A2%96</t>
-  </si>
-  <si>
-    <t>伊朗最高领袖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>伊朗政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%8B%99%E7%B8%BD%E7%90%86</t>
-  </si>
-  <si>
-    <t>大韓民國國務總理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>大韩民国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>秘鲁共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%80%BB%E7%90%86</t>
-  </si>
-  <si>
-    <t>秘鲁总理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>秘鲁政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>商務印書館（香港）有限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%91%98%E5%88%B6</t>
-  </si>
-  <si>
-    <t>委员制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E9%A2%86%E5%AF%BC%E7%9A%84%E5%A4%9A%E5%85%9A%E5%90%88%E4%BD%9C%E5%92%8C%E6%94%BF%E6%B2%BB%E5%8D%8F%E5%95%86%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>中国共产党领导的多党合作和政治协商制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三權分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2606,7 +2597,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -2632,10 +2623,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2661,10 +2652,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2690,10 +2681,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>9</v>
@@ -2719,10 +2710,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2748,10 +2739,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2777,10 +2768,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -2806,13 +2797,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2835,10 +2826,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2864,10 +2855,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>15</v>
@@ -2893,10 +2884,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2922,10 +2913,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2951,10 +2942,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2980,10 +2971,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3009,10 +3000,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
         <v>95</v>
-      </c>
-      <c r="F59" t="s">
-        <v>96</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3038,10 +3029,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>11</v>
@@ -3067,10 +3058,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3096,10 +3087,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>9</v>
@@ -3125,10 +3116,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>7</v>
@@ -3154,10 +3145,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3183,10 +3174,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3212,10 +3203,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3241,10 +3232,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3270,10 +3261,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3299,10 +3290,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -3328,10 +3319,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3357,10 +3348,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3386,10 +3377,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3415,10 +3406,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3444,10 +3435,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3473,10 +3464,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3502,10 +3493,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3560,10 +3551,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -3589,10 +3580,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3618,10 +3609,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3647,10 +3638,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3676,10 +3667,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3705,10 +3696,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3734,10 +3725,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3763,10 +3754,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3792,10 +3783,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3821,10 +3812,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3850,10 +3841,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3879,10 +3870,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3908,10 +3899,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3937,10 +3928,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3966,10 +3957,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3995,10 +3986,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4024,10 +4015,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4053,10 +4044,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4082,10 +4073,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4111,10 +4102,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4140,10 +4131,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4169,10 +4160,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4198,10 +4189,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4227,10 +4218,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4256,10 +4247,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4285,10 +4276,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4314,10 +4305,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4343,10 +4334,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4372,10 +4363,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4401,10 +4392,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4430,10 +4421,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4459,10 +4450,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4488,10 +4479,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4517,10 +4508,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -4546,10 +4537,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4575,10 +4566,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4604,10 +4595,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4633,10 +4624,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4662,10 +4653,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4691,10 +4682,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4720,10 +4711,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4749,10 +4740,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4778,10 +4769,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4807,10 +4798,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4836,10 +4827,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4865,10 +4856,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4894,10 +4885,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4923,10 +4914,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4952,10 +4943,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4981,10 +4972,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5010,10 +5001,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5039,10 +5030,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5068,10 +5059,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5097,10 +5088,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5126,10 +5117,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5155,10 +5146,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5184,10 +5175,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5213,10 +5204,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5242,10 +5233,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5271,10 +5262,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5300,10 +5291,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5329,10 +5320,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5358,10 +5349,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5387,10 +5378,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5416,10 +5407,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5445,10 +5436,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5474,10 +5465,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5503,10 +5494,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5532,10 +5523,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5561,10 +5552,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5590,10 +5581,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5619,10 +5610,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F149" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5648,10 +5639,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F150" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5677,10 +5668,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5706,10 +5697,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5735,10 +5726,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5764,10 +5755,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -5793,10 +5784,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5822,10 +5813,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5851,10 +5842,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5880,10 +5871,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5909,10 +5900,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -5938,10 +5929,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -5967,10 +5958,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -5979,6 +5970,64 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>161</v>
+      </c>
+      <c r="E162" t="s">
+        <v>309</v>
+      </c>
+      <c r="F162" t="s">
+        <v>310</v>
+      </c>
+      <c r="G162" t="n">
+        <v>6</v>
+      </c>
+      <c r="H162" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>309</v>
+      </c>
+      <c r="F163" t="s">
+        <v>311</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>4</v>
+      </c>
+      <c r="I163" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/总统制_intext.xlsx
+++ b/xlsx/总统制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>议会制</t>
   </si>
   <si>
-    <t>政策_政策_政治_总统制</t>
+    <t>体育运动_体育运动_伊朗_总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
